--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.48350866666667</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N2">
-        <v>58.450526</v>
+        <v>104.939308</v>
       </c>
       <c r="O2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q2">
-        <v>203.2956704151089</v>
+        <v>364.9874249678711</v>
       </c>
       <c r="R2">
-        <v>1829.66103373598</v>
+        <v>3284.88682471084</v>
       </c>
       <c r="S2">
-        <v>0.2992230948882366</v>
+        <v>0.4227205107909835</v>
       </c>
       <c r="T2">
-        <v>0.2992230948882367</v>
+        <v>0.4227205107909835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,13 +617,13 @@
         <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>61.03014899999999</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q3">
         <v>212.2678084451967</v>
@@ -635,10 +632,10 @@
         <v>1910.41027600677</v>
       </c>
       <c r="S3">
-        <v>0.3124288405081285</v>
+        <v>0.2458439668663512</v>
       </c>
       <c r="T3">
-        <v>0.3124288405081286</v>
+        <v>0.2458439668663513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.275017</v>
+        <v>25.035323</v>
       </c>
       <c r="N4">
-        <v>69.825051</v>
+        <v>75.105969</v>
       </c>
       <c r="O4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q4">
-        <v>242.85719096547</v>
+        <v>261.2246521105967</v>
       </c>
       <c r="R4">
-        <v>2185.71471868923</v>
+        <v>2351.02186899537</v>
       </c>
       <c r="S4">
-        <v>0.357452178633071</v>
+        <v>0.3025447202218235</v>
       </c>
       <c r="T4">
-        <v>0.3574521786330712</v>
+        <v>0.3025447202218235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.43424333333333</v>
+        <v>0.310422</v>
       </c>
       <c r="H5">
-        <v>31.30273</v>
+        <v>0.9312659999999999</v>
       </c>
       <c r="I5">
-        <v>0.9711091978791583</v>
+        <v>0.02889080212084161</v>
       </c>
       <c r="J5">
-        <v>0.9711091978791584</v>
+        <v>0.02889080212084161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1305583333333333</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N5">
-        <v>0.391675</v>
+        <v>104.939308</v>
       </c>
       <c r="O5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q5">
-        <v>1.362277419194444</v>
+        <v>10.858489955992</v>
       </c>
       <c r="R5">
-        <v>12.26049677275</v>
+        <v>97.726409603928</v>
       </c>
       <c r="S5">
-        <v>0.002005083849721901</v>
+        <v>0.01257606730155089</v>
       </c>
       <c r="T5">
-        <v>0.002005083849721902</v>
+        <v>0.01257606730155089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,34 +794,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>19.48350866666667</v>
+        <v>20.343383</v>
       </c>
       <c r="N6">
-        <v>58.450526</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O6">
-        <v>0.3081250754721726</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P6">
-        <v>0.3081250754721727</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q6">
-        <v>6.048109727323999</v>
+        <v>6.315033637626001</v>
       </c>
       <c r="R6">
-        <v>54.43298754591599</v>
+        <v>56.83530273863401</v>
       </c>
       <c r="S6">
-        <v>0.008901980583935924</v>
+        <v>0.007313934843630554</v>
       </c>
       <c r="T6">
-        <v>0.008901980583935928</v>
+        <v>0.007313934843630555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.343383</v>
+        <v>25.035323</v>
       </c>
       <c r="N7">
-        <v>61.03014899999999</v>
+        <v>75.105969</v>
       </c>
       <c r="O7">
-        <v>0.3217236961512192</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P7">
-        <v>0.3217236961512193</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q7">
-        <v>6.315033637626</v>
+        <v>7.771515036306</v>
       </c>
       <c r="R7">
-        <v>56.83530273863399</v>
+        <v>69.94363532675399</v>
       </c>
       <c r="S7">
-        <v>0.009294855643090644</v>
+        <v>0.009000799975660164</v>
       </c>
       <c r="T7">
-        <v>0.009294855643090648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.310422</v>
-      </c>
-      <c r="H8">
-        <v>0.9312659999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="J8">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>23.275017</v>
-      </c>
-      <c r="N8">
-        <v>69.825051</v>
-      </c>
-      <c r="O8">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="P8">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="Q8">
-        <v>7.225077327174</v>
-      </c>
-      <c r="R8">
-        <v>65.025695944566</v>
-      </c>
-      <c r="S8">
-        <v>0.01063431402267168</v>
-      </c>
-      <c r="T8">
-        <v>0.01063431402267168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.310422</v>
-      </c>
-      <c r="H9">
-        <v>0.9312659999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="J9">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1305583333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.391675</v>
-      </c>
-      <c r="O9">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="P9">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="Q9">
-        <v>0.04052817894999999</v>
-      </c>
-      <c r="R9">
-        <v>0.3647536105499999</v>
-      </c>
-      <c r="S9">
-        <v>5.965187114335127E-05</v>
-      </c>
-      <c r="T9">
-        <v>5.965187114335129E-05</v>
+        <v>0.009000799975660166</v>
       </c>
     </row>
   </sheetData>
